--- a/biology/Zoologie/Drassyllus_cerrus/Drassyllus_cerrus.xlsx
+++ b/biology/Zoologie/Drassyllus_cerrus/Drassyllus_cerrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drassyllus cerrus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drassyllus cerrus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Texas aux États-Unis[1],[2]. Elle se rencontre  dans le comté de Val Verde[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Texas aux États-Unis,. Elle se rencontre  dans le comté de Val Verde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,99 à 3,22 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,99 à 3,22 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Platnick &amp; Shadab, 1982 : A revision of the American spiders of the genus Drassyllus (Araneae, Gnaphosidae). Bulletin of the American Museum of Natural History, no 173, p. 1-97 (texte intégral).</t>
         </is>
